--- a/문서 관리/03. 용어사전.xlsx
+++ b/문서 관리/03. 용어사전.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>wn</t>
   </si>
@@ -42,9 +42,6 @@
     <t>한글명</t>
   </si>
   <si>
-    <t>wee</t>
-  </si>
-  <si>
     <t>Wee-Network _notice</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>관리자 이메일</t>
   </si>
   <si>
-    <t>notice</t>
-  </si>
-  <si>
     <t>mhtest</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t xml:space="preserve">상담 안내 </t>
   </si>
   <si>
-    <t>member</t>
-  </si>
-  <si>
     <t>SWeeT 학교업무게시판</t>
   </si>
   <si>
@@ -153,15 +144,9 @@
     <t>mhtest_custom</t>
   </si>
   <si>
-    <t>member_password</t>
-  </si>
-  <si>
     <t>administrator</t>
   </si>
   <si>
-    <t>member_email</t>
-  </si>
-  <si>
     <t>Wee-Network 소개</t>
   </si>
   <si>
@@ -198,12 +183,6 @@
     <t>SWeeT_board</t>
   </si>
   <si>
-    <t>wee_addr</t>
-  </si>
-  <si>
-    <t>wee_info</t>
-  </si>
-  <si>
     <t>Wee_address</t>
   </si>
   <si>
@@ -216,33 +195,18 @@
     <t>Weepl_logo</t>
   </si>
   <si>
-    <t>admin_pwd</t>
-  </si>
-  <si>
     <t>cons_guide</t>
   </si>
   <si>
     <t>cons_app</t>
   </si>
   <si>
-    <t>admin_email</t>
-  </si>
-  <si>
     <t>mem_email</t>
   </si>
   <si>
     <t>관리자 비밀번호</t>
   </si>
   <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>admin_id</t>
-  </si>
-  <si>
-    <t>member_name</t>
-  </si>
-  <si>
     <t>mem_name</t>
   </si>
   <si>
@@ -307,6 +271,262 @@
   </si>
   <si>
     <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cons_app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Date</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cons_app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>consulting_application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Date</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>yPage</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담만족도 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_Mem_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_Mem_mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_Cons_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Member_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Member_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Consulting_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_bd_cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_board_consulting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_Cons_sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Consulting_satisfaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강검사 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_mhtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_mind_health_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>WeeT 닉네임 변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SWeeT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_sweet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_SWeeT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_sweet_nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_SWeeT_nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 댓글 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_bd_com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_board_comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -323,6 +543,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -355,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +596,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +784,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -563,7 +793,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -843,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -871,8 +1101,8 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+      <c r="B2" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -880,101 +1110,101 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
+      <c r="C7" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,246 +1212,373 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>95</v>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/문서 관리/03. 용어사전.xlsx
+++ b/문서 관리/03. 용어사전.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="192">
   <si>
     <t>wn</t>
   </si>
@@ -126,9 +126,6 @@
     <t>mhtest</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>회원 아이디</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>mhtest_custom</t>
-  </si>
-  <si>
-    <t>administrator</t>
   </si>
   <si>
     <t>Wee-Network 소개</t>
@@ -430,23 +424,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mp_Mem_check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mp_Mem_mod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mp_Cons_hist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyPage_Member_check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyPage_Member_modification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,6 +509,406 @@
   </si>
   <si>
     <t>MyPage_board_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_cons_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_consulting_reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_Mem_wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Member_withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정(관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Member_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원신고 내역 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음 건강정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWeeT 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp_Mem_Cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Member_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_Dec_Mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_mod_Mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_modification_Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_Declaration_Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_Cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_Bd_Cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_mh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_swt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유입관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강검사 참여 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보 조회 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 관심 키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Member</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_static_inflow</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_SWeeT</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_site</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Notice</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Consulting</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Board_Consulting</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_mind_health</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_Cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_static</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>administrator_static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Consulting</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_mind_health_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_mhtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_mhinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_mind_health_information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,17 +1455,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1113,43 +1495,43 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1160,18 +1542,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,7 +1564,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,10 +1572,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,21 +1583,21 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
+      <c r="B12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1231,13 +1613,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1245,7 +1627,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1256,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -1264,10 +1646,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1278,32 +1660,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,35 +1701,35 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1358,62 +1740,62 @@
         <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1421,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -1440,10 +1822,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1454,131 +1836,367 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>129</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/문서 관리/03. 용어사전.xlsx
+++ b/문서 관리/03. 용어사전.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
   <si>
     <t>wn</t>
   </si>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MyPage_Consulting_satisfaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마음건강검사 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,10 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>a</t>
     </r>
@@ -848,10 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ad_static_Cons</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,6 +897,170 @@
   </si>
   <si>
     <t>administrator_static_keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유입경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_inf_route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_inflow_route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_inf_vis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_inf_nMem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_inflow_new_Members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_inflow_vistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_inf_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_accessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_inf_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내담자별 상담신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담만족도 조사 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_Consulting_applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_Cons_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_Cons_Cli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_Consulting_Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_Cons_bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_Consulting_board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_static_Cons_sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage_Consulting_satisfaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator_static_Consulting_satisfaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick_menu_youtube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick_menu_kakaotok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmenu_kakao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmenu_yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmenu_bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick_menu_bot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1455,10 +1607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1594,10 +1746,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1869,10 +2021,10 @@
         <v>104</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1883,7 +2035,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1916,287 +2068,425 @@
         <v>111</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="B68" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B74" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>182</v>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/문서 관리/03. 용어사전.xlsx
+++ b/문서 관리/03. 용어사전.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="233">
   <si>
     <t>wn</t>
   </si>
@@ -27,9 +27,6 @@
     <t>swt</t>
   </si>
   <si>
-    <t>mem</t>
-  </si>
-  <si>
     <t>Wee</t>
   </si>
   <si>
@@ -93,18 +90,12 @@
     <t>SWeeT</t>
   </si>
   <si>
-    <t>mem_pwd</t>
-  </si>
-  <si>
     <t>영문약어명</t>
   </si>
   <si>
     <t>회원 이메일</t>
   </si>
   <si>
-    <t>mem_id</t>
-  </si>
-  <si>
     <t>관리자 이름</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>Wee 센터 위치</t>
   </si>
   <si>
-    <t>weepl_logo</t>
-  </si>
-  <si>
     <t>SWeeT 자유게시판</t>
   </si>
   <si>
@@ -189,24 +177,9 @@
     <t>Weepl_logo</t>
   </si>
   <si>
-    <t>cons_guide</t>
-  </si>
-  <si>
-    <t>cons_app</t>
-  </si>
-  <si>
-    <t>mem_email</t>
-  </si>
-  <si>
     <t>관리자 비밀번호</t>
   </si>
   <si>
-    <t>mem_name</t>
-  </si>
-  <si>
-    <t>admin_name</t>
-  </si>
-  <si>
     <t>mhtest_sit</t>
   </si>
   <si>
@@ -277,7 +250,7 @@
   </si>
   <si>
     <r>
-      <t>cons_app</t>
+      <t>consulting_application</t>
     </r>
     <r>
       <rPr>
@@ -292,38 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>cons_app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_Id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>consulting_application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_Date</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Notice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,18 +298,6 @@
   </si>
   <si>
     <t>Wee_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -580,26 +509,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보 수정(관리자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,39 +557,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_Dec_Mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_mod_Mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_modification_Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>administrator_Declaration_Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_Notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_Cons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_Bd_Cons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_mh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_swt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -729,22 +618,6 @@
   </si>
   <si>
     <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>administrator</t>
     </r>
     <r>
@@ -840,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_Cons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>administrator</t>
     </r>
@@ -880,18 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_kw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_static_mhtest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_static_mhinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_static_mind_health_information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,10 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_inf_route</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_static_inflow_route</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,22 +777,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접속 기록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_inf_vis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_static_inf_nMem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_static_inflow_new_Members</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,18 +789,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_inf_acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_static_accessor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_inf_hist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_static_history</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -984,30 +817,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_Cons_app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_static_Cons_Cli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_static_Consulting_Client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_Cons_bd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator_static_Consulting_board</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad_static_Cons_sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MyPage_Consulting_satisfaction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1061,6 +878,174 @@
   </si>
   <si>
     <t>Quick_menu_bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortcut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weepl_logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cons_guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cons_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cons_app_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cons_app_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_mod_Mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_Dec_Mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_Cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_Bd_Cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_mh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_swt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_inf_route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_inf_vis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_inf_nMem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_inf_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_inf_hist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_Cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_Cons_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_Cons_Cli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_Cons_bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_Cons_sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_mhtest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_mhinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_static_kw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1607,10 +1592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1622,871 +1607,882 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>225</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/문서 관리/03. 용어사전.xlsx
+++ b/문서 관리/03. 용어사전.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
     <t>Wee</t>
   </si>
@@ -701,10 +701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,6 +754,82 @@
   </si>
   <si>
     <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문상담사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counselor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counselor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restriction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,9 +1376,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1900,57 +1974,123 @@
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>168</v>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/문서 관리/03. 용어사전.xlsx
+++ b/문서 관리/03. 용어사전.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="271">
   <si>
     <t>Wee</t>
   </si>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quick_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>챗봇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,14 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phone Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>restict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Restriction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,6 +810,429 @@
   </si>
   <si>
     <t>End Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick-menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거주지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ngitude</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유관기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Related </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rganization</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relorg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>mage</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mhInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mind Health Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모티콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>moticon</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ount</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes Or No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>majorc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date and Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,11 +1779,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1402,10 +1803,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1413,32 +1814,32 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -1446,13 +1847,13 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1460,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -1471,285 +1872,285 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1757,340 +2158,637 @@
         <v>81</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="B51" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="5" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/문서 관리/03. 용어사전.xlsx
+++ b/문서 관리/03. 용어사전.xlsx
@@ -5,21 +5,21 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\문서 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="용어사전" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="274">
   <si>
     <t>Wee</t>
   </si>
@@ -1233,6 +1233,18 @@
   </si>
   <si>
     <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1779,7 +1791,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
@@ -2791,6 +2803,17 @@
         <v>270</v>
       </c>
     </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
